--- a/pcb_experiment/221216RC.xlsx
+++ b/pcb_experiment/221216RC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://geccutokyoacjp-my.sharepoint.com/personal/kurumi-doi_g_ecc_u-tokyo_ac_jp/Documents/ドキュメント/GitHub/test-open/pcb_experiment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67804CE4-CFCF-4BD2-B8DF-76C28D921C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{67804CE4-CFCF-4BD2-B8DF-76C28D921C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55E85395-5DF1-4308-9DD0-AE6CABD19152}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="18310" windowHeight="8170" xr2:uid="{D95BD281-94BE-4F4E-8236-3AFAC5C212C1}"/>
+    <workbookView xWindow="10170" yWindow="-14580" windowWidth="14085" windowHeight="8175" xr2:uid="{D95BD281-94BE-4F4E-8236-3AFAC5C212C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -425,8 +425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA351877-EC35-41FD-96DD-FA7FF5D4096B}">
   <dimension ref="A1:F128"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="G132" sqref="G132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -470,7 +470,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>80</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -484,7 +484,7 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>80</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -498,7 +498,7 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>80</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -512,7 +512,7 @@
         <v>4</v>
       </c>
       <c r="D5">
-        <v>80</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -526,7 +526,7 @@
         <v>5</v>
       </c>
       <c r="D6">
-        <v>80</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -540,7 +540,7 @@
         <v>6</v>
       </c>
       <c r="D7">
-        <v>80</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -554,7 +554,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>80</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -568,7 +568,7 @@
         <v>8</v>
       </c>
       <c r="D9">
-        <v>80</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -582,7 +582,7 @@
         <v>9</v>
       </c>
       <c r="D10">
-        <v>80</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -596,7 +596,7 @@
         <v>10</v>
       </c>
       <c r="D11">
-        <v>80</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -610,7 +610,7 @@
         <v>11</v>
       </c>
       <c r="D12">
-        <v>80</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -624,7 +624,7 @@
         <v>12</v>
       </c>
       <c r="D13">
-        <v>80</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -638,7 +638,7 @@
         <v>13</v>
       </c>
       <c r="D14">
-        <v>80</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -652,7 +652,7 @@
         <v>14</v>
       </c>
       <c r="D15">
-        <v>80</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -666,7 +666,7 @@
         <v>15</v>
       </c>
       <c r="D16">
-        <v>80</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -680,7 +680,7 @@
         <v>16</v>
       </c>
       <c r="D17">
-        <v>80</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -694,7 +694,7 @@
         <v>17</v>
       </c>
       <c r="D18">
-        <v>80</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -708,7 +708,7 @@
         <v>18</v>
       </c>
       <c r="D19">
-        <v>80</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -722,7 +722,7 @@
         <v>19</v>
       </c>
       <c r="D20">
-        <v>80</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -736,7 +736,7 @@
         <v>20</v>
       </c>
       <c r="D21">
-        <v>80</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -750,7 +750,7 @@
         <v>21</v>
       </c>
       <c r="D22">
-        <v>80</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -764,7 +764,7 @@
         <v>22</v>
       </c>
       <c r="D23">
-        <v>80</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -778,7 +778,7 @@
         <v>23</v>
       </c>
       <c r="D24">
-        <v>80</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -792,7 +792,7 @@
         <v>24</v>
       </c>
       <c r="D25">
-        <v>80</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -806,7 +806,7 @@
         <v>25</v>
       </c>
       <c r="D26">
-        <v>80</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -820,7 +820,7 @@
         <v>26</v>
       </c>
       <c r="D27">
-        <v>80</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -834,7 +834,7 @@
         <v>27</v>
       </c>
       <c r="D28">
-        <v>80</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -848,7 +848,7 @@
         <v>28</v>
       </c>
       <c r="D29">
-        <v>80</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -862,7 +862,7 @@
         <v>29</v>
       </c>
       <c r="D30">
-        <v>80</v>
+        <v>128</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -882,7 +882,7 @@
         <v>30</v>
       </c>
       <c r="D31">
-        <v>80</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -896,7 +896,7 @@
         <v>31</v>
       </c>
       <c r="D32">
-        <v>80</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -910,7 +910,7 @@
         <v>32</v>
       </c>
       <c r="D33">
-        <v>80</v>
+        <v>128</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -921,10 +921,10 @@
         <v>58</v>
       </c>
       <c r="C34">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D34">
-        <v>80</v>
+        <v>128</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -935,10 +935,10 @@
         <v>59</v>
       </c>
       <c r="C35">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D35">
-        <v>80</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -949,10 +949,10 @@
         <v>60</v>
       </c>
       <c r="C36">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D36">
-        <v>80</v>
+        <v>128</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -963,10 +963,10 @@
         <v>61</v>
       </c>
       <c r="C37">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="D37">
-        <v>80</v>
+        <v>128</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -977,10 +977,10 @@
         <v>62</v>
       </c>
       <c r="C38">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D38">
-        <v>80</v>
+        <v>128</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -991,10 +991,10 @@
         <v>63</v>
       </c>
       <c r="C39">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="D39">
-        <v>80</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1005,10 +1005,10 @@
         <v>64</v>
       </c>
       <c r="C40">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D40">
-        <v>80</v>
+        <v>128</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1019,10 +1019,10 @@
         <v>65</v>
       </c>
       <c r="C41">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D41">
-        <v>80</v>
+        <v>128</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1033,10 +1033,10 @@
         <v>66</v>
       </c>
       <c r="C42">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="D42">
-        <v>80</v>
+        <v>128</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1047,10 +1047,10 @@
         <v>67</v>
       </c>
       <c r="C43">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D43">
-        <v>80</v>
+        <v>128</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1061,10 +1061,10 @@
         <v>68</v>
       </c>
       <c r="C44">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="D44">
-        <v>80</v>
+        <v>128</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1075,10 +1075,10 @@
         <v>69</v>
       </c>
       <c r="C45">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="D45">
-        <v>80</v>
+        <v>128</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1089,10 +1089,10 @@
         <v>70</v>
       </c>
       <c r="C46">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="D46">
-        <v>80</v>
+        <v>128</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1103,10 +1103,10 @@
         <v>71</v>
       </c>
       <c r="C47">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="D47">
-        <v>80</v>
+        <v>128</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1117,10 +1117,10 @@
         <v>72</v>
       </c>
       <c r="C48">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="D48">
-        <v>80</v>
+        <v>128</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1131,10 +1131,10 @@
         <v>73</v>
       </c>
       <c r="C49">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="D49">
-        <v>80</v>
+        <v>128</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1145,10 +1145,10 @@
         <v>74</v>
       </c>
       <c r="C50">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="D50">
-        <v>80</v>
+        <v>128</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1159,10 +1159,10 @@
         <v>75</v>
       </c>
       <c r="C51">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="D51">
-        <v>80</v>
+        <v>128</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1173,10 +1173,10 @@
         <v>76</v>
       </c>
       <c r="C52">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="D52">
-        <v>80</v>
+        <v>128</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1187,10 +1187,10 @@
         <v>77</v>
       </c>
       <c r="C53">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="D53">
-        <v>80</v>
+        <v>128</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1201,10 +1201,10 @@
         <v>78</v>
       </c>
       <c r="C54">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="D54">
-        <v>80</v>
+        <v>128</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1215,10 +1215,10 @@
         <v>79</v>
       </c>
       <c r="C55">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="D55">
-        <v>80</v>
+        <v>128</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1229,10 +1229,10 @@
         <v>80</v>
       </c>
       <c r="C56">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="D56">
-        <v>80</v>
+        <v>128</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1243,10 +1243,10 @@
         <v>81</v>
       </c>
       <c r="C57">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="D57">
-        <v>80</v>
+        <v>128</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1257,10 +1257,10 @@
         <v>82</v>
       </c>
       <c r="C58">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="D58">
-        <v>80</v>
+        <v>128</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1271,10 +1271,10 @@
         <v>83</v>
       </c>
       <c r="C59">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="D59">
-        <v>80</v>
+        <v>128</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1285,10 +1285,10 @@
         <v>84</v>
       </c>
       <c r="C60">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="D60">
-        <v>80</v>
+        <v>128</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1299,10 +1299,10 @@
         <v>85</v>
       </c>
       <c r="C61">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="D61">
-        <v>80</v>
+        <v>128</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1313,10 +1313,10 @@
         <v>86</v>
       </c>
       <c r="C62">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="D62">
-        <v>80</v>
+        <v>128</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1327,10 +1327,10 @@
         <v>87</v>
       </c>
       <c r="C63">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="D63">
-        <v>80</v>
+        <v>128</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1341,10 +1341,10 @@
         <v>88</v>
       </c>
       <c r="C64">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="D64">
-        <v>80</v>
+        <v>128</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1355,10 +1355,10 @@
         <v>89</v>
       </c>
       <c r="C65">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="D65">
-        <v>80</v>
+        <v>128</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1369,7 +1369,7 @@
         <v>90</v>
       </c>
       <c r="C66">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="D66">
         <v>1</v>
@@ -1383,7 +1383,7 @@
         <v>91</v>
       </c>
       <c r="C67">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="D67">
         <v>1</v>
@@ -1397,7 +1397,7 @@
         <v>92</v>
       </c>
       <c r="C68">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="D68">
         <v>1</v>
@@ -1411,7 +1411,7 @@
         <v>93</v>
       </c>
       <c r="C69">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="D69">
         <v>1</v>
@@ -1425,7 +1425,7 @@
         <v>94</v>
       </c>
       <c r="C70">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="D70">
         <v>1</v>
@@ -1439,7 +1439,7 @@
         <v>95</v>
       </c>
       <c r="C71">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="D71">
         <v>1</v>
@@ -1453,7 +1453,7 @@
         <v>96</v>
       </c>
       <c r="C72">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="D72">
         <v>1</v>
@@ -1467,7 +1467,7 @@
         <v>97</v>
       </c>
       <c r="C73">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="D73">
         <v>1</v>
@@ -1481,7 +1481,7 @@
         <v>98</v>
       </c>
       <c r="C74">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="D74">
         <v>1</v>
@@ -1495,7 +1495,7 @@
         <v>99</v>
       </c>
       <c r="C75">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="D75">
         <v>1</v>
@@ -1509,7 +1509,7 @@
         <v>100</v>
       </c>
       <c r="C76">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="D76">
         <v>1</v>
@@ -1523,7 +1523,7 @@
         <v>101</v>
       </c>
       <c r="C77">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="D77">
         <v>1</v>
@@ -1537,7 +1537,7 @@
         <v>102</v>
       </c>
       <c r="C78">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="D78">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         <v>103</v>
       </c>
       <c r="C79">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="D79">
         <v>1</v>
@@ -1577,7 +1577,7 @@
         <v>104</v>
       </c>
       <c r="C80">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="D80">
         <v>1</v>
@@ -1591,7 +1591,7 @@
         <v>105</v>
       </c>
       <c r="C81">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="D81">
         <v>1</v>
@@ -1605,7 +1605,7 @@
         <v>106</v>
       </c>
       <c r="C82">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="D82">
         <v>1</v>
@@ -1619,7 +1619,7 @@
         <v>107</v>
       </c>
       <c r="C83">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="D83">
         <v>1</v>
@@ -1633,7 +1633,7 @@
         <v>108</v>
       </c>
       <c r="C84">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="D84">
         <v>1</v>
@@ -1647,7 +1647,7 @@
         <v>109</v>
       </c>
       <c r="C85">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="D85">
         <v>1</v>
@@ -1661,7 +1661,7 @@
         <v>110</v>
       </c>
       <c r="C86">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="D86">
         <v>1</v>
@@ -1675,7 +1675,7 @@
         <v>111</v>
       </c>
       <c r="C87">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="D87">
         <v>1</v>
@@ -1689,7 +1689,7 @@
         <v>112</v>
       </c>
       <c r="C88">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="D88">
         <v>1</v>
@@ -1703,7 +1703,7 @@
         <v>113</v>
       </c>
       <c r="C89">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="D89">
         <v>1</v>
@@ -1717,7 +1717,7 @@
         <v>114</v>
       </c>
       <c r="C90">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="D90">
         <v>1</v>
@@ -1731,7 +1731,7 @@
         <v>115</v>
       </c>
       <c r="C91">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="D91">
         <v>1</v>
@@ -1745,7 +1745,7 @@
         <v>116</v>
       </c>
       <c r="C92">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="D92">
         <v>1</v>
@@ -1759,7 +1759,7 @@
         <v>117</v>
       </c>
       <c r="C93">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="D93">
         <v>1</v>
@@ -1773,7 +1773,7 @@
         <v>118</v>
       </c>
       <c r="C94">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="D94">
         <v>1</v>
@@ -1787,7 +1787,7 @@
         <v>119</v>
       </c>
       <c r="C95">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="D95">
         <v>1</v>
@@ -1801,7 +1801,7 @@
         <v>120</v>
       </c>
       <c r="C96">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="D96">
         <v>1</v>
@@ -1815,7 +1815,7 @@
         <v>121</v>
       </c>
       <c r="C97">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="D97">
         <v>1</v>
@@ -1829,7 +1829,7 @@
         <v>122</v>
       </c>
       <c r="C98">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="D98">
         <v>1</v>
@@ -1843,7 +1843,7 @@
         <v>123</v>
       </c>
       <c r="C99">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="D99">
         <v>1</v>
@@ -1857,7 +1857,7 @@
         <v>124</v>
       </c>
       <c r="C100">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="D100">
         <v>1</v>
@@ -1871,7 +1871,7 @@
         <v>125</v>
       </c>
       <c r="C101">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="D101">
         <v>1</v>
@@ -1885,7 +1885,7 @@
         <v>126</v>
       </c>
       <c r="C102">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="D102">
         <v>1</v>
@@ -1899,7 +1899,7 @@
         <v>127</v>
       </c>
       <c r="C103">
-        <v>54</v>
+        <v>102</v>
       </c>
       <c r="D103">
         <v>1</v>
@@ -1913,7 +1913,7 @@
         <v>128</v>
       </c>
       <c r="C104">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="D104">
         <v>1</v>
@@ -1927,7 +1927,7 @@
         <v>129</v>
       </c>
       <c r="C105">
-        <v>56</v>
+        <v>104</v>
       </c>
       <c r="D105">
         <v>1</v>
@@ -1941,7 +1941,7 @@
         <v>130</v>
       </c>
       <c r="C106">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="D106">
         <v>1</v>
@@ -1955,7 +1955,7 @@
         <v>131</v>
       </c>
       <c r="C107">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="D107">
         <v>1</v>
@@ -1969,7 +1969,7 @@
         <v>132</v>
       </c>
       <c r="C108">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="D108">
         <v>1</v>
@@ -1983,7 +1983,7 @@
         <v>133</v>
       </c>
       <c r="C109">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="D109">
         <v>1</v>
@@ -1997,7 +1997,7 @@
         <v>134</v>
       </c>
       <c r="C110">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="D110">
         <v>1</v>
@@ -2011,7 +2011,7 @@
         <v>135</v>
       </c>
       <c r="C111">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="D111">
         <v>1</v>
@@ -2025,7 +2025,7 @@
         <v>136</v>
       </c>
       <c r="C112">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="D112">
         <v>1</v>
@@ -2039,7 +2039,7 @@
         <v>137</v>
       </c>
       <c r="C113">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="D113">
         <v>1</v>
@@ -2053,7 +2053,7 @@
         <v>138</v>
       </c>
       <c r="C114">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="D114">
         <v>1</v>
@@ -2067,7 +2067,7 @@
         <v>139</v>
       </c>
       <c r="C115">
-        <v>66</v>
+        <v>114</v>
       </c>
       <c r="D115">
         <v>1</v>
@@ -2081,7 +2081,7 @@
         <v>140</v>
       </c>
       <c r="C116">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="D116">
         <v>1</v>
@@ -2101,7 +2101,7 @@
         <v>141</v>
       </c>
       <c r="C117">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="D117">
         <v>1</v>
@@ -2115,7 +2115,7 @@
         <v>142</v>
       </c>
       <c r="C118">
-        <v>69</v>
+        <v>117</v>
       </c>
       <c r="D118">
         <v>1</v>
@@ -2135,7 +2135,7 @@
         <v>143</v>
       </c>
       <c r="C119">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="D119">
         <v>1</v>
@@ -2149,7 +2149,7 @@
         <v>144</v>
       </c>
       <c r="C120">
-        <v>71</v>
+        <v>119</v>
       </c>
       <c r="D120">
         <v>1</v>
@@ -2169,7 +2169,7 @@
         <v>145</v>
       </c>
       <c r="C121">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="D121">
         <v>1</v>
@@ -2183,7 +2183,7 @@
         <v>146</v>
       </c>
       <c r="C122">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="D122">
         <v>1</v>
@@ -2197,7 +2197,7 @@
         <v>147</v>
       </c>
       <c r="C123">
-        <v>74</v>
+        <v>122</v>
       </c>
       <c r="D123">
         <v>1</v>
@@ -2211,7 +2211,7 @@
         <v>148</v>
       </c>
       <c r="C124">
-        <v>75</v>
+        <v>123</v>
       </c>
       <c r="D124">
         <v>1</v>
@@ -2225,7 +2225,7 @@
         <v>149</v>
       </c>
       <c r="C125">
-        <v>76</v>
+        <v>124</v>
       </c>
       <c r="D125">
         <v>1</v>
@@ -2239,7 +2239,7 @@
         <v>150</v>
       </c>
       <c r="C126">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="D126">
         <v>1</v>
@@ -2253,7 +2253,7 @@
         <v>151</v>
       </c>
       <c r="C127">
-        <v>79</v>
+        <v>127</v>
       </c>
       <c r="D127">
         <v>1</v>
@@ -2267,7 +2267,7 @@
         <v>152</v>
       </c>
       <c r="C128">
-        <v>78</v>
+        <v>126</v>
       </c>
       <c r="D128">
         <v>1</v>

--- a/pcb_experiment/221216RC.xlsx
+++ b/pcb_experiment/221216RC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://geccutokyoacjp-my.sharepoint.com/personal/kurumi-doi_g_ecc_u-tokyo_ac_jp/Documents/ドキュメント/GitHub/test-open/pcb_experiment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{67804CE4-CFCF-4BD2-B8DF-76C28D921C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55E85395-5DF1-4308-9DD0-AE6CABD19152}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{67804CE4-CFCF-4BD2-B8DF-76C28D921C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A59F8A9-5C05-47AF-AF91-3983D7080D62}"/>
   <bookViews>
-    <workbookView xWindow="10170" yWindow="-14580" windowWidth="14085" windowHeight="8175" xr2:uid="{D95BD281-94BE-4F4E-8236-3AFAC5C212C1}"/>
+    <workbookView xWindow="2770" yWindow="2430" windowWidth="14090" windowHeight="8180" xr2:uid="{D95BD281-94BE-4F4E-8236-3AFAC5C212C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>dtacq_num</t>
   </si>
@@ -60,6 +60,13 @@
   </si>
   <si>
     <t>ng</t>
+  </si>
+  <si>
+    <t>ch11に信号</t>
+    <rPh sb="5" eb="7">
+      <t>シンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -124,6 +131,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -425,8 +436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA351877-EC35-41FD-96DD-FA7FF5D4096B}">
   <dimension ref="A1:F128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="G132" sqref="G132"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -598,6 +609,12 @@
       <c r="D11">
         <v>128</v>
       </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
@@ -1815,7 +1832,7 @@
         <v>121</v>
       </c>
       <c r="C97">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D97">
         <v>1</v>

--- a/pcb_experiment/221216RC.xlsx
+++ b/pcb_experiment/221216RC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://geccutokyoacjp-my.sharepoint.com/personal/kurumi-doi_g_ecc_u-tokyo_ac_jp/Documents/ドキュメント/GitHub/test-open/pcb_experiment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{67804CE4-CFCF-4BD2-B8DF-76C28D921C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A59F8A9-5C05-47AF-AF91-3983D7080D62}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{67804CE4-CFCF-4BD2-B8DF-76C28D921C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71AC1FD0-FC63-4584-8108-00CA64AC49C6}"/>
   <bookViews>
-    <workbookView xWindow="2770" yWindow="2430" windowWidth="14090" windowHeight="8180" xr2:uid="{D95BD281-94BE-4F4E-8236-3AFAC5C212C1}"/>
+    <workbookView xWindow="4950" yWindow="20" windowWidth="14400" windowHeight="11290" xr2:uid="{D95BD281-94BE-4F4E-8236-3AFAC5C212C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>dtacq_num</t>
   </si>
@@ -67,6 +67,27 @@
       <t>シンゴウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>22/12/19測定, ch10、11の入れ替え確認</t>
+  </si>
+  <si>
+    <t>ch10にも微小信号</t>
+  </si>
+  <si>
+    <t>振幅が斜め右へ</t>
+  </si>
+  <si>
+    <t>信号小、導通弱い</t>
+  </si>
+  <si>
+    <t>信号小、導通なし</t>
+  </si>
+  <si>
+    <t>a039-6-ch29-32の場所入れ替え</t>
+  </si>
+  <si>
+    <t>a039⑤デジタイザ側の端子が緩かったので差し直し</t>
   </si>
 </sst>
 </file>
@@ -434,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA351877-EC35-41FD-96DD-FA7FF5D4096B}">
-  <dimension ref="A1:F128"/>
+  <dimension ref="A1:F196"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C98" sqref="C98"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="A129" sqref="A129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2290,6 +2311,988 @@
         <v>1</v>
       </c>
     </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A129">
+        <v>39</v>
+      </c>
+      <c r="B129">
+        <v>162</v>
+      </c>
+      <c r="C129">
+        <v>11</v>
+      </c>
+      <c r="D129">
+        <v>1</v>
+      </c>
+      <c r="F129" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A130">
+        <v>39</v>
+      </c>
+      <c r="B130">
+        <v>163</v>
+      </c>
+      <c r="C130">
+        <v>10</v>
+      </c>
+      <c r="D130">
+        <v>1</v>
+      </c>
+      <c r="F130" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A131">
+        <v>39</v>
+      </c>
+      <c r="B131">
+        <v>164</v>
+      </c>
+      <c r="C131">
+        <v>161</v>
+      </c>
+      <c r="D131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A132">
+        <v>39</v>
+      </c>
+      <c r="B132">
+        <v>165</v>
+      </c>
+      <c r="C132">
+        <v>162</v>
+      </c>
+      <c r="D132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A133">
+        <v>39</v>
+      </c>
+      <c r="B133">
+        <v>166</v>
+      </c>
+      <c r="C133">
+        <v>163</v>
+      </c>
+      <c r="D133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A134">
+        <v>39</v>
+      </c>
+      <c r="B134">
+        <v>167</v>
+      </c>
+      <c r="C134">
+        <v>164</v>
+      </c>
+      <c r="D134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A135">
+        <v>39</v>
+      </c>
+      <c r="B135">
+        <v>168</v>
+      </c>
+      <c r="C135">
+        <v>165</v>
+      </c>
+      <c r="D135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A136">
+        <v>39</v>
+      </c>
+      <c r="B136">
+        <v>169</v>
+      </c>
+      <c r="C136">
+        <v>166</v>
+      </c>
+      <c r="D136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A137">
+        <v>39</v>
+      </c>
+      <c r="B137">
+        <v>170</v>
+      </c>
+      <c r="C137">
+        <v>167</v>
+      </c>
+      <c r="D137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A138">
+        <v>39</v>
+      </c>
+      <c r="B138">
+        <v>171</v>
+      </c>
+      <c r="C138">
+        <v>168</v>
+      </c>
+      <c r="D138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A139">
+        <v>39</v>
+      </c>
+      <c r="B139">
+        <v>172</v>
+      </c>
+      <c r="C139">
+        <v>169</v>
+      </c>
+      <c r="D139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A140">
+        <v>39</v>
+      </c>
+      <c r="B140">
+        <v>173</v>
+      </c>
+      <c r="C140">
+        <v>170</v>
+      </c>
+      <c r="D140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A141">
+        <v>39</v>
+      </c>
+      <c r="B141">
+        <v>174</v>
+      </c>
+      <c r="C141">
+        <v>171</v>
+      </c>
+      <c r="D141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A142">
+        <v>39</v>
+      </c>
+      <c r="B142">
+        <v>175</v>
+      </c>
+      <c r="C142">
+        <v>172</v>
+      </c>
+      <c r="D142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A143">
+        <v>39</v>
+      </c>
+      <c r="B143">
+        <v>176</v>
+      </c>
+      <c r="C143">
+        <v>173</v>
+      </c>
+      <c r="D143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A144">
+        <v>39</v>
+      </c>
+      <c r="B144">
+        <v>177</v>
+      </c>
+      <c r="C144">
+        <v>174</v>
+      </c>
+      <c r="D144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A145">
+        <v>39</v>
+      </c>
+      <c r="B145">
+        <v>178</v>
+      </c>
+      <c r="C145">
+        <v>175</v>
+      </c>
+      <c r="D145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A146">
+        <v>39</v>
+      </c>
+      <c r="B146">
+        <v>179</v>
+      </c>
+      <c r="C146">
+        <v>176</v>
+      </c>
+      <c r="D146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A147">
+        <v>39</v>
+      </c>
+      <c r="B147">
+        <v>180</v>
+      </c>
+      <c r="C147">
+        <v>177</v>
+      </c>
+      <c r="D147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A148">
+        <v>39</v>
+      </c>
+      <c r="B148">
+        <v>181</v>
+      </c>
+      <c r="C148">
+        <v>178</v>
+      </c>
+      <c r="D148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A149">
+        <v>39</v>
+      </c>
+      <c r="B149">
+        <v>182</v>
+      </c>
+      <c r="C149">
+        <v>179</v>
+      </c>
+      <c r="D149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A150">
+        <v>39</v>
+      </c>
+      <c r="B150">
+        <v>183</v>
+      </c>
+      <c r="C150">
+        <v>180</v>
+      </c>
+      <c r="D150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A151">
+        <v>39</v>
+      </c>
+      <c r="B151">
+        <v>184</v>
+      </c>
+      <c r="C151">
+        <v>181</v>
+      </c>
+      <c r="D151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A152">
+        <v>39</v>
+      </c>
+      <c r="B152">
+        <v>185</v>
+      </c>
+      <c r="C152">
+        <v>182</v>
+      </c>
+      <c r="D152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A153">
+        <v>39</v>
+      </c>
+      <c r="B153">
+        <v>186</v>
+      </c>
+      <c r="C153">
+        <v>183</v>
+      </c>
+      <c r="D153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A154">
+        <v>39</v>
+      </c>
+      <c r="B154">
+        <v>187</v>
+      </c>
+      <c r="C154">
+        <v>184</v>
+      </c>
+      <c r="D154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A155">
+        <v>39</v>
+      </c>
+      <c r="B155">
+        <v>188</v>
+      </c>
+      <c r="C155">
+        <v>185</v>
+      </c>
+      <c r="D155">
+        <v>1</v>
+      </c>
+      <c r="E155">
+        <v>1</v>
+      </c>
+      <c r="F155" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A156">
+        <v>39</v>
+      </c>
+      <c r="B156">
+        <v>189</v>
+      </c>
+      <c r="C156">
+        <v>186</v>
+      </c>
+      <c r="D156">
+        <v>1</v>
+      </c>
+      <c r="E156">
+        <v>1</v>
+      </c>
+      <c r="F156" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A157">
+        <v>39</v>
+      </c>
+      <c r="B157">
+        <v>190</v>
+      </c>
+      <c r="C157">
+        <v>187</v>
+      </c>
+      <c r="D157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A158">
+        <v>39</v>
+      </c>
+      <c r="B158">
+        <v>191</v>
+      </c>
+      <c r="C158">
+        <v>188</v>
+      </c>
+      <c r="D158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A159">
+        <v>39</v>
+      </c>
+      <c r="B159">
+        <v>192</v>
+      </c>
+      <c r="C159">
+        <v>189</v>
+      </c>
+      <c r="D159">
+        <v>1</v>
+      </c>
+      <c r="E159">
+        <v>1</v>
+      </c>
+      <c r="F159" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A160">
+        <v>39</v>
+      </c>
+      <c r="B160">
+        <v>193</v>
+      </c>
+      <c r="C160">
+        <v>189</v>
+      </c>
+      <c r="D160">
+        <v>1</v>
+      </c>
+      <c r="F160" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A161">
+        <v>39</v>
+      </c>
+      <c r="B161">
+        <v>194</v>
+      </c>
+      <c r="C161">
+        <v>190</v>
+      </c>
+      <c r="D161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A162">
+        <v>39</v>
+      </c>
+      <c r="B162">
+        <v>195</v>
+      </c>
+      <c r="C162">
+        <v>191</v>
+      </c>
+      <c r="D162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A163">
+        <v>39</v>
+      </c>
+      <c r="B163">
+        <v>196</v>
+      </c>
+      <c r="C163">
+        <v>192</v>
+      </c>
+      <c r="D163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A164">
+        <v>39</v>
+      </c>
+      <c r="B164">
+        <v>197</v>
+      </c>
+      <c r="C164">
+        <v>129</v>
+      </c>
+      <c r="D164">
+        <v>1</v>
+      </c>
+      <c r="F164" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A165">
+        <v>39</v>
+      </c>
+      <c r="B165">
+        <v>198</v>
+      </c>
+      <c r="C165">
+        <v>130</v>
+      </c>
+      <c r="D165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A166">
+        <v>39</v>
+      </c>
+      <c r="B166">
+        <v>199</v>
+      </c>
+      <c r="C166">
+        <v>131</v>
+      </c>
+      <c r="D166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A167">
+        <v>39</v>
+      </c>
+      <c r="B167">
+        <v>200</v>
+      </c>
+      <c r="C167">
+        <v>132</v>
+      </c>
+      <c r="D167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A168">
+        <v>39</v>
+      </c>
+      <c r="B168">
+        <v>201</v>
+      </c>
+      <c r="C168">
+        <v>133</v>
+      </c>
+      <c r="D168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A169">
+        <v>39</v>
+      </c>
+      <c r="B169">
+        <v>202</v>
+      </c>
+      <c r="C169">
+        <v>134</v>
+      </c>
+      <c r="D169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A170">
+        <v>39</v>
+      </c>
+      <c r="B170">
+        <v>203</v>
+      </c>
+      <c r="C170">
+        <v>135</v>
+      </c>
+      <c r="D170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A171">
+        <v>39</v>
+      </c>
+      <c r="B171">
+        <v>204</v>
+      </c>
+      <c r="C171">
+        <v>136</v>
+      </c>
+      <c r="D171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A172">
+        <v>39</v>
+      </c>
+      <c r="B172">
+        <v>205</v>
+      </c>
+      <c r="C172">
+        <v>137</v>
+      </c>
+      <c r="D172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A173">
+        <v>39</v>
+      </c>
+      <c r="B173">
+        <v>206</v>
+      </c>
+      <c r="C173">
+        <v>138</v>
+      </c>
+      <c r="D173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A174">
+        <v>39</v>
+      </c>
+      <c r="B174">
+        <v>207</v>
+      </c>
+      <c r="C174">
+        <v>139</v>
+      </c>
+      <c r="D174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A175">
+        <v>39</v>
+      </c>
+      <c r="B175">
+        <v>208</v>
+      </c>
+      <c r="C175">
+        <v>140</v>
+      </c>
+      <c r="D175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A176">
+        <v>39</v>
+      </c>
+      <c r="B176">
+        <v>209</v>
+      </c>
+      <c r="C176">
+        <v>141</v>
+      </c>
+      <c r="D176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A177">
+        <v>39</v>
+      </c>
+      <c r="B177">
+        <v>210</v>
+      </c>
+      <c r="C177">
+        <v>142</v>
+      </c>
+      <c r="D177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A178">
+        <v>39</v>
+      </c>
+      <c r="B178">
+        <v>211</v>
+      </c>
+      <c r="C178">
+        <v>143</v>
+      </c>
+      <c r="D178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A179">
+        <v>39</v>
+      </c>
+      <c r="B179">
+        <v>212</v>
+      </c>
+      <c r="C179">
+        <v>144</v>
+      </c>
+      <c r="D179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A180">
+        <v>39</v>
+      </c>
+      <c r="B180">
+        <v>213</v>
+      </c>
+      <c r="C180">
+        <v>145</v>
+      </c>
+      <c r="D180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A181">
+        <v>39</v>
+      </c>
+      <c r="B181">
+        <v>214</v>
+      </c>
+      <c r="C181">
+        <v>146</v>
+      </c>
+      <c r="D181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A182">
+        <v>39</v>
+      </c>
+      <c r="B182">
+        <v>215</v>
+      </c>
+      <c r="C182">
+        <v>147</v>
+      </c>
+      <c r="D182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A183">
+        <v>39</v>
+      </c>
+      <c r="B183">
+        <v>216</v>
+      </c>
+      <c r="C183">
+        <v>148</v>
+      </c>
+      <c r="D183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A184">
+        <v>39</v>
+      </c>
+      <c r="B184">
+        <v>217</v>
+      </c>
+      <c r="C184">
+        <v>149</v>
+      </c>
+      <c r="D184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A185">
+        <v>39</v>
+      </c>
+      <c r="B185">
+        <v>218</v>
+      </c>
+      <c r="C185">
+        <v>150</v>
+      </c>
+      <c r="D185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A186">
+        <v>39</v>
+      </c>
+      <c r="B186">
+        <v>219</v>
+      </c>
+      <c r="C186">
+        <v>151</v>
+      </c>
+      <c r="D186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A187">
+        <v>39</v>
+      </c>
+      <c r="B187">
+        <v>220</v>
+      </c>
+      <c r="C187">
+        <v>152</v>
+      </c>
+      <c r="D187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A188">
+        <v>39</v>
+      </c>
+      <c r="B188">
+        <v>221</v>
+      </c>
+      <c r="C188">
+        <v>153</v>
+      </c>
+      <c r="D188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A189">
+        <v>39</v>
+      </c>
+      <c r="B189">
+        <v>222</v>
+      </c>
+      <c r="C189">
+        <v>154</v>
+      </c>
+      <c r="D189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A190">
+        <v>39</v>
+      </c>
+      <c r="B190">
+        <v>223</v>
+      </c>
+      <c r="C190">
+        <v>155</v>
+      </c>
+      <c r="D190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A191">
+        <v>39</v>
+      </c>
+      <c r="B191">
+        <v>224</v>
+      </c>
+      <c r="C191">
+        <v>156</v>
+      </c>
+      <c r="D191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A192">
+        <v>39</v>
+      </c>
+      <c r="B192">
+        <v>225</v>
+      </c>
+      <c r="C192">
+        <v>157</v>
+      </c>
+      <c r="D192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A193">
+        <v>39</v>
+      </c>
+      <c r="B193">
+        <v>226</v>
+      </c>
+      <c r="C193">
+        <v>158</v>
+      </c>
+      <c r="D193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A194">
+        <v>39</v>
+      </c>
+      <c r="B194">
+        <v>227</v>
+      </c>
+      <c r="C194">
+        <v>159</v>
+      </c>
+      <c r="D194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A195">
+        <v>39</v>
+      </c>
+      <c r="B195">
+        <v>228</v>
+      </c>
+      <c r="C195">
+        <v>160</v>
+      </c>
+      <c r="D195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A196">
+        <v>39</v>
+      </c>
+      <c r="B196">
+        <v>229</v>
+      </c>
+      <c r="C196">
+        <v>128</v>
+      </c>
+      <c r="D196">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
